--- a/biology/Botanique/Bifrenaria/Bifrenaria.xlsx
+++ b/biology/Botanique/Bifrenaria/Bifrenaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bifrenaria est un genre de plantes de la famille des Orchidaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre vient du latin bi (deux) et frenum (bande), par référence aux deux bandes rejoignant les pollinies.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique du Sud
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (11 octobre 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (11 octobre 2021) :
 Bifrenaria atropurpurea Lindl.
 Bifrenaria aureofulva Lindl.
 Bifrenaria calcarata Barb.Rodr.
@@ -597,7 +615,7 @@
 Bifrenaria verboonenii G.A.Romero &amp; V.P.Castro
 Bifrenaria vitellina (Lindl.) Lindl.
 Bifrenaria wittigii (Rchb.f.) Hoehne
-Selon World Checklist of Selected Plant Families (WCSP)  (11 octobre 2021)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (11 octobre 2021) :
 Bifrenaria atropurpurea Lindl. (1832)
 Bifrenaria aureofulva (Hook.) Lindl. (1843)
 Bifrenaria calcarata Barb.Rodr. (1882)
@@ -620,7 +638,7 @@
 Bifrenaria verboonenii G.A.Romero &amp; V.P.Castro (2000)
 Bifrenaria vitellina (Lindl.) Lindl. (1843)
 Bifrenaria wittigii (Rchb.f.) Hoehne, Fl. Brasílica 10(12 (1953)
-Selon NCBI  (11 octobre 2021)[3] :
+Selon NCBI  (11 octobre 2021) :
 Bifrenaria atropurpurea Lindl.
 Bifrenaria aureofulva Adipe aureofulva (Lindl.) M.Wolff
 Bifrenaria calcarata Barb.Rodr., non (Vell.) V.P.Castro
@@ -637,7 +655,7 @@
 Bifrenaria venezuelana C.Schweinf.
 Bifrenaria vitellina (Lindl.) Lindl.
 Bifrenaria wittigii (Rchb.f.) Hoehne
-Selon The Plant List            (11 octobre 2021)[4] :
+Selon The Plant List            (11 octobre 2021) :
 Bifrenaria atropurpurea Lindl.
 Bifrenaria aureofulva Lindl.
 Bifrenaria calcarata Barb.Rodr.
@@ -660,7 +678,7 @@
 Bifrenaria verboonenii G.A.Romero &amp; V.P.Castro
 Bifrenaria vitellina (Lindl.) Lindl.
 Bifrenaria wittigii (Rchb.f.) Hoehne
-Selon Tropicos                                           (11 octobre 2021)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 octobre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Bifrenaria albiflora Barb. Rodr.
 Bifrenaria atropurpurea Lindl.
 Bifrenaria aurantiaca Lindl.
